--- a/MachineLearning/results/Model_Results.xlsx
+++ b/MachineLearning/results/Model_Results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/petergish/Nucleus/BerkleyBootcamp/Classwork/Final_Project/MachineLearning/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/petergish/Nucleus/BerkleyBootcamp/Classwork/Final_Project/MachineLearning/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{952FC5BE-0D1E-9A49-8BDB-7A4B19333440}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0583854F-16A5-CB40-B963-53EF731CBFF5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" activeTab="3" xr2:uid="{03D1DB79-8614-EC4C-A29B-2A57565C59DA}"/>
+    <workbookView xWindow="38400" yWindow="460" windowWidth="38400" windowHeight="21140" activeTab="4" xr2:uid="{03D1DB79-8614-EC4C-A29B-2A57565C59DA}"/>
   </bookViews>
   <sheets>
     <sheet name="GunAcquisition" sheetId="1" r:id="rId1"/>
@@ -421,17 +421,8 @@
   <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -457,14 +448,23 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -673,7 +673,7 @@
                   <c:v>0.77547999999999995</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.81291999999999998</c:v>
+                  <c:v>0.91410000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1045,7 +1045,7 @@
                   <c:v>0.56416999999999995</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.72701000000000005</c:v>
+                  <c:v>0.7258</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1412,7 +1412,7 @@
                   <c:v>0.54983000000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.77408999999999994</c:v>
+                  <c:v>0.77359999999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1693,6 +1693,11 @@
             <c:idx val="0"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000000-3994-4A45-A157-166B0BB63D3A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -1764,15 +1769,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(NotesNLP!$H$6,NotesNLP!$H$17)</c:f>
+              <c:f>(NotesNLP!$F$6,NotesNLP!$F$15)</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.77832000000000001</c:v>
+                  <c:v>0.7823</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.70831999999999995</c:v>
+                  <c:v>0.7177</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1869,7 +1874,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(CharacteristicsNLP!$H$6,CharacteristicsNLP!$H$17)</c:f>
+              <c:f>(CharacteristicsNLP!$F$6,CharacteristicsNLP!$F$15)</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1877,7 +1882,7 @@
                   <c:v>0.97189000000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.43875999999999998</c:v>
+                  <c:v>0.44550000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4392,15 +4397,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>292100</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>355600</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4729,73 +4734,73 @@
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M36" sqref="M36"/>
+      <selection activeCell="L43" sqref="L43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
     </row>
     <row r="2" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="8"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="5"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="9"/>
-      <c r="B4" s="3" t="s">
+      <c r="A4" s="6"/>
+      <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3" t="s">
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3" t="s">
+      <c r="F4" s="2"/>
+      <c r="G4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="10"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="7"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="9"/>
+      <c r="A5" s="6"/>
       <c r="B5" s="1">
         <v>290</v>
       </c>
       <c r="C5" s="1">
         <v>85</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="13">
+      <c r="D5" s="2"/>
+      <c r="E5" s="10">
         <v>0.76446000000000003</v>
       </c>
-      <c r="F5" s="3"/>
+      <c r="F5" s="2"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
         <v>6</v>
@@ -4811,23 +4816,23 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="9"/>
+      <c r="A6" s="6"/>
       <c r="B6" s="1">
         <v>862</v>
       </c>
       <c r="C6" s="1">
         <v>2665</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
       <c r="G6" s="1">
         <v>0</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H6" s="11">
         <v>0.25</v>
       </c>
-      <c r="I6" s="15">
+      <c r="I6" s="12">
         <v>0.77</v>
       </c>
       <c r="J6" s="1">
@@ -4838,19 +4843,19 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="9"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
       <c r="G7" s="1">
         <v>1</v>
       </c>
-      <c r="H7" s="14">
+      <c r="H7" s="11">
         <v>0.97</v>
       </c>
-      <c r="I7" s="15">
+      <c r="I7" s="12">
         <v>0.76</v>
       </c>
       <c r="J7" s="1">
@@ -4861,12 +4866,12 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="11"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
       <c r="G8" s="1" t="s">
         <v>5</v>
       </c>
@@ -4884,65 +4889,65 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="8"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="5"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="9"/>
-      <c r="B12" s="3" t="s">
+      <c r="A12" s="6"/>
+      <c r="B12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3" t="s">
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3" t="s">
+      <c r="F12" s="2"/>
+      <c r="G12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="10"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="7"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="9"/>
+      <c r="A13" s="6"/>
       <c r="B13" s="1">
         <v>274</v>
       </c>
       <c r="C13" s="1">
         <v>101</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="13">
+      <c r="D13" s="2"/>
+      <c r="E13" s="10">
         <v>0.75844</v>
       </c>
-      <c r="F13" s="3"/>
+      <c r="F13" s="2"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1" t="s">
         <v>6</v>
@@ -4958,23 +4963,23 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="9"/>
+      <c r="A14" s="6"/>
       <c r="B14" s="1">
         <v>754</v>
       </c>
       <c r="C14" s="1">
         <v>2773</v>
       </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
       <c r="G14" s="1">
         <v>0</v>
       </c>
-      <c r="H14" s="14">
+      <c r="H14" s="11">
         <v>0.27</v>
       </c>
-      <c r="I14" s="15">
+      <c r="I14" s="12">
         <v>0.73</v>
       </c>
       <c r="J14" s="1">
@@ -4985,19 +4990,19 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="9"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
       <c r="G15" s="1">
         <v>1</v>
       </c>
-      <c r="H15" s="14">
+      <c r="H15" s="11">
         <v>0.96</v>
       </c>
-      <c r="I15" s="15">
+      <c r="I15" s="12">
         <v>0.79</v>
       </c>
       <c r="J15" s="1">
@@ -5008,12 +5013,12 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="11"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
       <c r="G16" s="1" t="s">
         <v>5</v>
       </c>
@@ -5031,52 +5036,52 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="8"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="5"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="9"/>
-      <c r="B20" s="3" t="s">
+      <c r="A20" s="6"/>
+      <c r="B20" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3" t="s">
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3" t="s">
+      <c r="F20" s="2"/>
+      <c r="G20" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="10"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="7"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="9"/>
+      <c r="A21" s="6"/>
       <c r="B21" s="1">
         <v>230</v>
       </c>
       <c r="C21" s="1">
         <v>145</v>
       </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="13">
+      <c r="D21" s="2"/>
+      <c r="E21" s="10">
         <v>0.77547999999999995</v>
       </c>
-      <c r="F21" s="3"/>
+      <c r="F21" s="2"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1" t="s">
         <v>6</v>
@@ -5092,23 +5097,23 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="9"/>
+      <c r="A22" s="6"/>
       <c r="B22" s="1">
         <v>220</v>
       </c>
       <c r="C22" s="1">
         <v>3307</v>
       </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
       <c r="G22" s="1">
         <v>0</v>
       </c>
-      <c r="H22" s="14">
+      <c r="H22" s="11">
         <v>0.51</v>
       </c>
-      <c r="I22" s="15">
+      <c r="I22" s="12">
         <v>0.61</v>
       </c>
       <c r="J22" s="1">
@@ -5119,19 +5124,19 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="9"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
+      <c r="A23" s="6"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
       <c r="G23" s="1">
         <v>1</v>
       </c>
-      <c r="H23" s="14">
+      <c r="H23" s="11">
         <v>0.96</v>
       </c>
-      <c r="I23" s="15">
+      <c r="I23" s="12">
         <v>0.94</v>
       </c>
       <c r="J23" s="1">
@@ -5142,12 +5147,12 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="11"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
+      <c r="A24" s="8"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
       <c r="G24" s="1" t="s">
         <v>5</v>
       </c>
@@ -5165,137 +5170,137 @@
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" s="30" t="s">
+      <c r="A27" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="B27" s="31"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="18"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="15"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" s="19"/>
-      <c r="B28" s="16" t="s">
+      <c r="A28" s="16"/>
+      <c r="B28" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16" t="s">
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16" t="s">
+      <c r="F28" s="13"/>
+      <c r="G28" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="20"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="17"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" s="19"/>
-      <c r="B29" s="21">
+      <c r="A29" s="16"/>
+      <c r="B29" s="18">
         <v>375</v>
       </c>
-      <c r="C29" s="22">
+      <c r="C29" s="19">
         <v>0</v>
       </c>
-      <c r="D29" s="16"/>
-      <c r="E29" s="23">
-        <v>0.81291999999999998</v>
-      </c>
-      <c r="F29" s="16"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="22" t="s">
+      <c r="D29" s="13"/>
+      <c r="E29" s="20">
+        <v>0.91410000000000002</v>
+      </c>
+      <c r="F29" s="13"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="I29" s="22" t="s">
+      <c r="I29" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="J29" s="22" t="s">
+      <c r="J29" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="22" t="s">
+      <c r="K29" s="19" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" s="19"/>
-      <c r="B30" s="24">
-        <v>3195</v>
-      </c>
-      <c r="C30" s="25">
-        <v>332</v>
-      </c>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="24">
+      <c r="A30" s="16"/>
+      <c r="B30" s="21">
+        <v>3351</v>
+      </c>
+      <c r="C30" s="22">
+        <v>176</v>
+      </c>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="21">
         <v>0</v>
       </c>
-      <c r="H30" s="26">
-        <v>0.31</v>
-      </c>
-      <c r="I30" s="27">
-        <v>0.8</v>
-      </c>
-      <c r="J30" s="25">
-        <v>0.81</v>
-      </c>
-      <c r="K30" s="25">
-        <v>0.45</v>
+      <c r="H30" s="23">
+        <v>0.6</v>
+      </c>
+      <c r="I30" s="24">
+        <v>0.32</v>
+      </c>
+      <c r="J30" s="22">
+        <v>0.98</v>
+      </c>
+      <c r="K30" s="22">
+        <v>0.42</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A31" s="19"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="24">
+      <c r="A31" s="16"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="21">
         <v>1</v>
       </c>
-      <c r="H31" s="26">
-        <v>0.97</v>
-      </c>
-      <c r="I31" s="27">
-        <v>0.81</v>
-      </c>
-      <c r="J31" s="25">
-        <v>0.8</v>
-      </c>
-      <c r="K31" s="25">
-        <v>0.89</v>
+      <c r="H31" s="23">
+        <v>0.93</v>
+      </c>
+      <c r="I31" s="24">
+        <v>0.98</v>
+      </c>
+      <c r="J31" s="22">
+        <v>0.32</v>
+      </c>
+      <c r="K31" s="22">
+        <v>0.95</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32" s="28"/>
-      <c r="B32" s="29"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="24" t="s">
+      <c r="A32" s="25"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="H32" s="25">
+      <c r="H32" s="22">
+        <v>0.9</v>
+      </c>
+      <c r="I32" s="22">
         <v>0.91</v>
       </c>
-      <c r="I32" s="25">
-        <v>0.81</v>
-      </c>
-      <c r="J32" s="25">
-        <v>0.8</v>
-      </c>
-      <c r="K32" s="25">
-        <v>0.85</v>
+      <c r="J32" s="22">
+        <v>0.39</v>
+      </c>
+      <c r="K32" s="22">
+        <v>0.9</v>
       </c>
     </row>
   </sheetData>
@@ -5316,7 +5321,7 @@
   <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S44" sqref="S44"/>
+      <selection activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5329,806 +5334,806 @@
       <c r="C1" s="34"/>
       <c r="D1" s="34"/>
       <c r="E1" s="34"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
     </row>
     <row r="2" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="18"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="15"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="19"/>
-      <c r="B4" s="32" t="s">
+      <c r="A4" s="16"/>
+      <c r="B4" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32" t="s">
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32" t="s">
+      <c r="G4" s="27"/>
+      <c r="H4" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="20"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="17"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="19"/>
-      <c r="B5" s="21">
+      <c r="A5" s="16"/>
+      <c r="B5" s="18">
         <v>7300</v>
       </c>
-      <c r="C5" s="21">
+      <c r="C5" s="18">
         <v>3435</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="18">
         <v>5168</v>
       </c>
-      <c r="E5" s="32"/>
-      <c r="F5" s="23">
+      <c r="E5" s="27"/>
+      <c r="F5" s="20">
         <v>0.63171999999999995</v>
       </c>
-      <c r="G5" s="32"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="22" t="s">
+      <c r="G5" s="27"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="22" t="s">
+      <c r="J5" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="K5" s="22" t="s">
+      <c r="K5" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="L5" s="22" t="s">
+      <c r="L5" s="19" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="19"/>
-      <c r="B6" s="21">
+      <c r="A6" s="16"/>
+      <c r="B6" s="18">
         <v>10</v>
       </c>
-      <c r="C6" s="21">
+      <c r="C6" s="18">
         <v>1493</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="18">
         <v>14</v>
       </c>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="24">
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="21">
         <v>0</v>
       </c>
-      <c r="I6" s="26">
+      <c r="I6" s="23">
         <v>0.81</v>
       </c>
-      <c r="J6" s="27">
+      <c r="J6" s="24">
         <v>0.46</v>
       </c>
-      <c r="K6" s="25">
+      <c r="K6" s="22">
         <v>0.73</v>
       </c>
-      <c r="L6" s="25">
+      <c r="L6" s="22">
         <v>0.59</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="19"/>
-      <c r="B7" s="21">
+      <c r="A7" s="16"/>
+      <c r="B7" s="18">
         <v>1705</v>
       </c>
-      <c r="C7" s="21">
+      <c r="C7" s="18">
         <v>936</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="18">
         <v>2178</v>
       </c>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="24">
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="21">
         <v>1</v>
       </c>
-      <c r="I7" s="26">
+      <c r="I7" s="23">
         <v>0.25</v>
       </c>
-      <c r="J7" s="27">
+      <c r="J7" s="24">
         <v>0.98</v>
       </c>
-      <c r="K7" s="25">
+      <c r="K7" s="22">
         <v>0.79</v>
       </c>
-      <c r="L7" s="25">
+      <c r="L7" s="22">
         <v>0.4</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="19"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="24">
+      <c r="A8" s="16"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="21">
         <v>2</v>
       </c>
-      <c r="I8" s="26">
+      <c r="I8" s="23">
         <v>0.3</v>
       </c>
-      <c r="J8" s="27">
+      <c r="J8" s="24">
         <v>0.45</v>
       </c>
-      <c r="K8" s="25">
+      <c r="K8" s="22">
         <v>0.7</v>
       </c>
-      <c r="L8" s="25">
+      <c r="L8" s="22">
         <v>0.36</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="28"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="24" t="s">
+      <c r="A9" s="25"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="I9" s="25">
+      <c r="I9" s="22">
         <v>0.66</v>
       </c>
-      <c r="J9" s="25">
+      <c r="J9" s="22">
         <v>0.49</v>
       </c>
-      <c r="K9" s="25">
+      <c r="K9" s="22">
         <v>0.73</v>
       </c>
-      <c r="L9" s="25">
+      <c r="L9" s="22">
         <v>0.52</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="16"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="16"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="31"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="18"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="15"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="19"/>
-      <c r="B13" s="16" t="s">
+      <c r="A13" s="16"/>
+      <c r="B13" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16" t="s">
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16" t="s">
+      <c r="G13" s="13"/>
+      <c r="H13" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="20"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="17"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="19"/>
-      <c r="B14" s="21">
+      <c r="A14" s="16"/>
+      <c r="B14" s="18">
         <v>6582</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C14" s="18">
         <v>3626</v>
       </c>
-      <c r="D14" s="21">
+      <c r="D14" s="18">
         <v>5695</v>
       </c>
-      <c r="E14" s="16"/>
-      <c r="F14" s="23">
+      <c r="E14" s="13"/>
+      <c r="F14" s="20">
         <v>0.63060000000000005</v>
       </c>
-      <c r="G14" s="16"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="22" t="s">
+      <c r="G14" s="13"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="J14" s="22" t="s">
+      <c r="J14" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="K14" s="22" t="s">
+      <c r="K14" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="22" t="s">
+      <c r="L14" s="19" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="19"/>
-      <c r="B15" s="21">
+      <c r="A15" s="16"/>
+      <c r="B15" s="18">
         <v>0</v>
       </c>
-      <c r="C15" s="21">
+      <c r="C15" s="18">
         <v>1512</v>
       </c>
-      <c r="D15" s="21">
+      <c r="D15" s="18">
         <v>5</v>
       </c>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="24">
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="21">
         <v>0</v>
       </c>
-      <c r="I15" s="26">
+      <c r="I15" s="23">
         <v>0.81</v>
       </c>
-      <c r="J15" s="27">
+      <c r="J15" s="24">
         <v>0.41</v>
       </c>
-      <c r="K15" s="25">
+      <c r="K15" s="22">
         <v>0.76</v>
       </c>
-      <c r="L15" s="25">
+      <c r="L15" s="22">
         <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="19"/>
-      <c r="B16" s="21">
+      <c r="A16" s="16"/>
+      <c r="B16" s="18">
         <v>1519</v>
       </c>
-      <c r="C16" s="21">
+      <c r="C16" s="18">
         <v>981</v>
       </c>
-      <c r="D16" s="21">
+      <c r="D16" s="18">
         <v>2319</v>
       </c>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="24">
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="21">
         <v>1</v>
       </c>
-      <c r="I16" s="26">
+      <c r="I16" s="23">
         <v>0.25</v>
       </c>
-      <c r="J16" s="27">
+      <c r="J16" s="24">
         <v>1</v>
       </c>
-      <c r="K16" s="25">
+      <c r="K16" s="22">
         <v>0.78</v>
       </c>
-      <c r="L16" s="25">
+      <c r="L16" s="22">
         <v>0.4</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="19"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="24">
+      <c r="A17" s="16"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="21">
         <v>2</v>
       </c>
-      <c r="I17" s="26">
+      <c r="I17" s="23">
         <v>0.28999999999999998</v>
       </c>
-      <c r="J17" s="27">
+      <c r="J17" s="24">
         <v>0.48</v>
       </c>
-      <c r="K17" s="25">
+      <c r="K17" s="22">
         <v>0.67</v>
       </c>
-      <c r="L17" s="25">
+      <c r="L17" s="22">
         <v>0.36</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="28"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="24" t="s">
+      <c r="A18" s="25"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="I18" s="25">
+      <c r="I18" s="22">
         <v>0.66</v>
       </c>
-      <c r="J18" s="25">
+      <c r="J18" s="22">
         <v>0.47</v>
       </c>
-      <c r="K18" s="25">
+      <c r="K18" s="22">
         <v>0.74</v>
       </c>
-      <c r="L18" s="25">
+      <c r="L18" s="22">
         <v>0.5</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="16"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="16"/>
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="16"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="16"/>
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="30" t="s">
+      <c r="A21" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="31"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="18"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="15"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="19"/>
-      <c r="B22" s="16" t="s">
+      <c r="A22" s="16"/>
+      <c r="B22" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16" t="s">
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16" t="s">
+      <c r="G22" s="13"/>
+      <c r="H22" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="16"/>
-      <c r="L22" s="20"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="17"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="19"/>
-      <c r="B23" s="21">
+      <c r="A23" s="16"/>
+      <c r="B23" s="18">
         <v>12549</v>
       </c>
-      <c r="C23" s="21">
+      <c r="C23" s="18">
         <v>647</v>
       </c>
-      <c r="D23" s="21">
+      <c r="D23" s="18">
         <v>2707</v>
       </c>
-      <c r="E23" s="16"/>
-      <c r="F23" s="23">
+      <c r="E23" s="13"/>
+      <c r="F23" s="20">
         <v>0.56416999999999995</v>
       </c>
-      <c r="G23" s="16"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="22" t="s">
+      <c r="G23" s="13"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="J23" s="22" t="s">
+      <c r="J23" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="K23" s="22" t="s">
+      <c r="K23" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="L23" s="22" t="s">
+      <c r="L23" s="19" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="19"/>
-      <c r="B24" s="21">
+      <c r="A24" s="16"/>
+      <c r="B24" s="18">
         <v>577</v>
       </c>
-      <c r="C24" s="21">
+      <c r="C24" s="18">
         <v>818</v>
       </c>
-      <c r="D24" s="21">
+      <c r="D24" s="18">
         <v>122</v>
       </c>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="24">
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="21">
         <v>0</v>
       </c>
-      <c r="I24" s="26">
+      <c r="I24" s="23">
         <v>0.79</v>
       </c>
-      <c r="J24" s="27">
+      <c r="J24" s="24">
         <v>0.79</v>
       </c>
-      <c r="K24" s="25">
+      <c r="K24" s="22">
         <v>0.46</v>
       </c>
-      <c r="L24" s="25">
+      <c r="L24" s="22">
         <v>0.79</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="19"/>
-      <c r="B25" s="21">
+      <c r="A25" s="16"/>
+      <c r="B25" s="18">
         <v>2854</v>
       </c>
-      <c r="C25" s="21">
+      <c r="C25" s="18">
         <v>210</v>
       </c>
-      <c r="D25" s="21">
+      <c r="D25" s="18">
         <v>1755</v>
       </c>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="24">
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="21">
         <v>1</v>
       </c>
-      <c r="I25" s="26">
+      <c r="I25" s="23">
         <v>0.49</v>
       </c>
-      <c r="J25" s="27">
+      <c r="J25" s="24">
         <v>0.54</v>
       </c>
-      <c r="K25" s="25">
+      <c r="K25" s="22">
         <v>0.96</v>
       </c>
-      <c r="L25" s="25">
+      <c r="L25" s="22">
         <v>0.51</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="19"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="24">
+      <c r="A26" s="16"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="21">
         <v>2</v>
       </c>
-      <c r="I26" s="26">
+      <c r="I26" s="23">
         <v>0.38</v>
       </c>
-      <c r="J26" s="27">
+      <c r="J26" s="24">
         <v>0.36</v>
       </c>
-      <c r="K26" s="25">
+      <c r="K26" s="22">
         <v>0.84</v>
       </c>
-      <c r="L26" s="25">
+      <c r="L26" s="22">
         <v>0.37</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="28"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="24" t="s">
+      <c r="A27" s="25"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="I27" s="25">
+      <c r="I27" s="22">
         <v>0.68</v>
       </c>
-      <c r="J27" s="25">
+      <c r="J27" s="22">
         <v>0.68</v>
       </c>
-      <c r="K27" s="25">
+      <c r="K27" s="22">
         <v>0.56999999999999995</v>
       </c>
-      <c r="L27" s="25">
+      <c r="L27" s="22">
         <v>0.68</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="16"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="16"/>
-      <c r="L28" s="16"/>
+      <c r="A28" s="13"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="16"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="16"/>
-      <c r="L29" s="16"/>
+      <c r="A29" s="13"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" s="30" t="s">
+      <c r="A30" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="B30" s="31"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="17"/>
-      <c r="K30" s="17"/>
-      <c r="L30" s="18"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="15"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A31" s="19"/>
-      <c r="B31" s="16" t="s">
+      <c r="A31" s="16"/>
+      <c r="B31" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16" t="s">
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16" t="s">
+      <c r="G31" s="13"/>
+      <c r="H31" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="16"/>
-      <c r="L31" s="20"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="17"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32" s="19"/>
-      <c r="B32" s="21">
-        <v>15559</v>
-      </c>
-      <c r="C32" s="21">
-        <v>268</v>
-      </c>
-      <c r="D32" s="21">
-        <v>76</v>
-      </c>
-      <c r="E32" s="16"/>
-      <c r="F32" s="23">
-        <v>0.72701000000000005</v>
-      </c>
-      <c r="G32" s="16"/>
-      <c r="H32" s="21"/>
-      <c r="I32" s="22" t="s">
+      <c r="A32" s="16"/>
+      <c r="B32" s="18">
+        <v>15451</v>
+      </c>
+      <c r="C32" s="18">
+        <v>452</v>
+      </c>
+      <c r="D32" s="18">
+        <v>0</v>
+      </c>
+      <c r="E32" s="13"/>
+      <c r="F32" s="20">
+        <v>0.7258</v>
+      </c>
+      <c r="G32" s="13"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="J32" s="22" t="s">
+      <c r="J32" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="K32" s="22" t="s">
+      <c r="K32" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="L32" s="22" t="s">
+      <c r="L32" s="19" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A33" s="19"/>
-      <c r="B33" s="21">
-        <v>973</v>
-      </c>
-      <c r="C33" s="21">
+      <c r="A33" s="16"/>
+      <c r="B33" s="18">
+        <v>830</v>
+      </c>
+      <c r="C33" s="18">
         <v>544</v>
       </c>
-      <c r="D33" s="21">
+      <c r="D33" s="18">
         <v>0</v>
       </c>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="24">
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="21">
         <v>0</v>
       </c>
-      <c r="I33" s="26">
+      <c r="I33" s="23">
+        <v>0.74</v>
+      </c>
+      <c r="J33" s="24">
+        <v>0.97</v>
+      </c>
+      <c r="K33" s="22">
+        <v>0.13</v>
+      </c>
+      <c r="L33" s="22">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A34" s="16"/>
+      <c r="B34" s="18">
+        <v>4668</v>
+      </c>
+      <c r="C34" s="18">
+        <v>133</v>
+      </c>
+      <c r="D34" s="18">
+        <v>2</v>
+      </c>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="21">
+        <v>1</v>
+      </c>
+      <c r="I34" s="23">
+        <v>0.54</v>
+      </c>
+      <c r="J34" s="24">
+        <v>0.45</v>
+      </c>
+      <c r="K34" s="22">
+        <v>0.97</v>
+      </c>
+      <c r="L34" s="22">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A35" s="16"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="21">
+        <v>2</v>
+      </c>
+      <c r="I35" s="23">
+        <v>1</v>
+      </c>
+      <c r="J35" s="24">
+        <v>0</v>
+      </c>
+      <c r="K35" s="22">
+        <v>1</v>
+      </c>
+      <c r="L35" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A36" s="25"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="I36" s="22">
+        <v>0.78</v>
+      </c>
+      <c r="J36" s="22">
         <v>0.73</v>
       </c>
-      <c r="J33" s="27">
-        <v>0.98</v>
-      </c>
-      <c r="K33" s="25">
-        <v>0.11</v>
-      </c>
-      <c r="L33" s="25">
-        <v>0.84</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A34" s="19"/>
-      <c r="B34" s="21">
-        <v>4668</v>
-      </c>
-      <c r="C34" s="21">
-        <v>86</v>
-      </c>
-      <c r="D34" s="21">
-        <v>65</v>
-      </c>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="24">
-        <v>1</v>
-      </c>
-      <c r="I34" s="26">
-        <v>0.61</v>
-      </c>
-      <c r="J34" s="27">
-        <v>0.36</v>
-      </c>
-      <c r="K34" s="25">
-        <v>0.98</v>
-      </c>
-      <c r="L34" s="25">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A35" s="19"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="24">
-        <v>2</v>
-      </c>
-      <c r="I35" s="26">
-        <v>0.46</v>
-      </c>
-      <c r="J35" s="27">
-        <v>0.01</v>
-      </c>
-      <c r="K35" s="25">
-        <v>1</v>
-      </c>
-      <c r="L35" s="25">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A36" s="28"/>
-      <c r="B36" s="29"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="29"/>
-      <c r="H36" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="I36" s="25">
-        <v>0.67</v>
-      </c>
-      <c r="J36" s="25">
-        <v>0.73</v>
-      </c>
-      <c r="K36" s="25">
-        <v>0.36</v>
-      </c>
-      <c r="L36" s="25">
-        <v>0.64</v>
+      <c r="K36" s="22">
+        <v>0.38</v>
+      </c>
+      <c r="L36" s="22">
+        <v>0.63</v>
       </c>
     </row>
   </sheetData>
@@ -6149,7 +6154,7 @@
   <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+      <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6163,804 +6168,804 @@
       <c r="D1" s="34"/>
       <c r="E1" s="34"/>
       <c r="F1" s="34"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
     </row>
     <row r="2" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="18"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="15"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="19"/>
-      <c r="B4" s="32" t="s">
+      <c r="A4" s="16"/>
+      <c r="B4" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32" t="s">
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32" t="s">
+      <c r="G4" s="27"/>
+      <c r="H4" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="20"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="17"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="19"/>
-      <c r="B5" s="21">
+      <c r="A5" s="16"/>
+      <c r="B5" s="18">
         <v>18762</v>
       </c>
-      <c r="C5" s="21">
+      <c r="C5" s="18">
         <v>937</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="18">
         <v>0</v>
       </c>
-      <c r="E5" s="32"/>
-      <c r="F5" s="23">
+      <c r="E5" s="27"/>
+      <c r="F5" s="20">
         <v>0.52373000000000003</v>
       </c>
-      <c r="G5" s="32"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="22" t="s">
+      <c r="G5" s="27"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="22" t="s">
+      <c r="J5" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="K5" s="22" t="s">
+      <c r="K5" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="L5" s="22" t="s">
+      <c r="L5" s="19" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="19"/>
-      <c r="B6" s="21">
+      <c r="A6" s="16"/>
+      <c r="B6" s="18">
         <v>4980</v>
       </c>
-      <c r="C6" s="21">
+      <c r="C6" s="18">
         <v>339</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="18">
         <v>1279</v>
       </c>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="24">
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="21">
         <v>0</v>
       </c>
-      <c r="I6" s="26">
+      <c r="I6" s="23">
         <v>0.78</v>
       </c>
-      <c r="J6" s="27">
+      <c r="J6" s="24">
         <v>0.95</v>
       </c>
-      <c r="K6" s="25">
+      <c r="K6" s="22">
         <v>0.28000000000000003</v>
       </c>
-      <c r="L6" s="25">
+      <c r="L6" s="22">
         <v>0.86</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="19"/>
-      <c r="B7" s="21">
+      <c r="A7" s="16"/>
+      <c r="B7" s="18">
         <v>348</v>
       </c>
-      <c r="C7" s="21">
+      <c r="C7" s="18">
         <v>18</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="18">
         <v>480</v>
       </c>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="24">
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="21">
         <v>1</v>
       </c>
-      <c r="I7" s="26">
+      <c r="I7" s="23">
         <v>0.26</v>
       </c>
-      <c r="J7" s="27">
+      <c r="J7" s="24">
         <v>0.05</v>
       </c>
-      <c r="K7" s="25">
+      <c r="K7" s="22">
         <v>0.95</v>
       </c>
-      <c r="L7" s="25">
+      <c r="L7" s="22">
         <v>0.09</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="19"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="24">
+      <c r="A8" s="16"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="21">
         <v>2</v>
       </c>
-      <c r="I8" s="26">
+      <c r="I8" s="23">
         <v>0.27</v>
       </c>
-      <c r="J8" s="27">
+      <c r="J8" s="24">
         <v>0.56999999999999995</v>
       </c>
-      <c r="K8" s="25">
+      <c r="K8" s="22">
         <v>0.95</v>
       </c>
-      <c r="L8" s="25">
+      <c r="L8" s="22">
         <v>0.37</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="28"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="24" t="s">
+      <c r="A9" s="25"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="I9" s="25">
+      <c r="I9" s="22">
         <v>0.64</v>
       </c>
-      <c r="J9" s="25">
+      <c r="J9" s="22">
         <v>0.72</v>
       </c>
-      <c r="K9" s="25">
+      <c r="K9" s="22">
         <v>0.47</v>
       </c>
-      <c r="L9" s="25">
+      <c r="L9" s="22">
         <v>0.65</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="16"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="16"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="31"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="18"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="15"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="19"/>
-      <c r="B13" s="16" t="s">
+      <c r="A13" s="16"/>
+      <c r="B13" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16" t="s">
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16" t="s">
+      <c r="G13" s="13"/>
+      <c r="H13" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="20"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="17"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="19"/>
-      <c r="B14" s="21">
+      <c r="A14" s="16"/>
+      <c r="B14" s="18">
         <v>19055</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C14" s="18">
         <v>644</v>
       </c>
-      <c r="D14" s="21">
+      <c r="D14" s="18">
         <v>0</v>
       </c>
-      <c r="E14" s="16"/>
-      <c r="F14" s="23">
+      <c r="E14" s="13"/>
+      <c r="F14" s="20">
         <v>0.52327999999999997</v>
       </c>
-      <c r="G14" s="16"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="22" t="s">
+      <c r="G14" s="13"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="J14" s="22" t="s">
+      <c r="J14" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="K14" s="22" t="s">
+      <c r="K14" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="22" t="s">
+      <c r="L14" s="19" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="19"/>
-      <c r="B15" s="21">
+      <c r="A15" s="16"/>
+      <c r="B15" s="18">
         <v>5087</v>
       </c>
-      <c r="C15" s="21">
+      <c r="C15" s="18">
         <v>232</v>
       </c>
-      <c r="D15" s="21">
+      <c r="D15" s="18">
         <v>1279</v>
       </c>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="24">
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="21">
         <v>0</v>
       </c>
-      <c r="I15" s="26">
+      <c r="I15" s="23">
         <v>0.78</v>
       </c>
-      <c r="J15" s="27">
+      <c r="J15" s="24">
         <v>0.97</v>
       </c>
-      <c r="K15" s="25">
+      <c r="K15" s="22">
         <v>0.27</v>
       </c>
-      <c r="L15" s="25">
+      <c r="L15" s="22">
         <v>0.86</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="19"/>
-      <c r="B16" s="21">
+      <c r="A16" s="16"/>
+      <c r="B16" s="18">
         <v>353</v>
       </c>
-      <c r="C16" s="21">
+      <c r="C16" s="18">
         <v>13</v>
       </c>
-      <c r="D16" s="21">
+      <c r="D16" s="18">
         <v>480</v>
       </c>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="24">
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="21">
         <v>1</v>
       </c>
-      <c r="I16" s="26">
+      <c r="I16" s="23">
         <v>0.26</v>
       </c>
-      <c r="J16" s="27">
+      <c r="J16" s="24">
         <v>0.04</v>
       </c>
-      <c r="K16" s="25">
+      <c r="K16" s="22">
         <v>0.97</v>
       </c>
-      <c r="L16" s="25">
+      <c r="L16" s="22">
         <v>0.06</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="19"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="24">
+      <c r="A17" s="16"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="21">
         <v>2</v>
       </c>
-      <c r="I17" s="26">
+      <c r="I17" s="23">
         <v>0.27</v>
       </c>
-      <c r="J17" s="27">
+      <c r="J17" s="24">
         <v>0.56999999999999995</v>
       </c>
-      <c r="K17" s="25">
+      <c r="K17" s="22">
         <v>0.95</v>
       </c>
-      <c r="L17" s="25">
+      <c r="L17" s="22">
         <v>0.37</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="28"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="24" t="s">
+      <c r="A18" s="25"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="I18" s="25">
+      <c r="I18" s="22">
         <v>0.64</v>
       </c>
-      <c r="J18" s="25">
+      <c r="J18" s="22">
         <v>0.73</v>
       </c>
-      <c r="K18" s="25">
+      <c r="K18" s="22">
         <v>0.46</v>
       </c>
-      <c r="L18" s="25">
+      <c r="L18" s="22">
         <v>0.65</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="16"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="16"/>
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="16"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="16"/>
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="30" t="s">
+      <c r="A21" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="31"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="18"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="15"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="19"/>
-      <c r="B22" s="16" t="s">
+      <c r="A22" s="16"/>
+      <c r="B22" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16" t="s">
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16" t="s">
+      <c r="G22" s="13"/>
+      <c r="H22" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="16"/>
-      <c r="L22" s="20"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="17"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="19"/>
-      <c r="B23" s="21">
+      <c r="A23" s="16"/>
+      <c r="B23" s="18">
         <v>11758</v>
       </c>
-      <c r="C23" s="21">
+      <c r="C23" s="18">
         <v>5850</v>
       </c>
-      <c r="D23" s="21">
+      <c r="D23" s="18">
         <v>2091</v>
       </c>
-      <c r="E23" s="16"/>
-      <c r="F23" s="23">
+      <c r="E23" s="13"/>
+      <c r="F23" s="20">
         <v>0.54983000000000004</v>
       </c>
-      <c r="G23" s="16"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="22" t="s">
+      <c r="G23" s="13"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="J23" s="22" t="s">
+      <c r="J23" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="K23" s="22" t="s">
+      <c r="K23" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="L23" s="22" t="s">
+      <c r="L23" s="19" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="19"/>
-      <c r="B24" s="21">
+      <c r="A24" s="16"/>
+      <c r="B24" s="18">
         <v>2391</v>
       </c>
-      <c r="C24" s="21">
+      <c r="C24" s="18">
         <v>2807</v>
       </c>
-      <c r="D24" s="21">
+      <c r="D24" s="18">
         <v>1400</v>
       </c>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="24">
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="21">
         <v>0</v>
       </c>
-      <c r="I24" s="26">
+      <c r="I24" s="23">
         <v>0.82</v>
       </c>
-      <c r="J24" s="27">
+      <c r="J24" s="24">
         <v>0.6</v>
       </c>
-      <c r="K24" s="25">
+      <c r="K24" s="22">
         <v>0.66</v>
       </c>
-      <c r="L24" s="25">
+      <c r="L24" s="22">
         <v>0.69</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="19"/>
-      <c r="B25" s="21">
+      <c r="A25" s="16"/>
+      <c r="B25" s="18">
         <v>161</v>
       </c>
-      <c r="C25" s="21">
+      <c r="C25" s="18">
         <v>326</v>
       </c>
-      <c r="D25" s="21">
+      <c r="D25" s="18">
         <v>359</v>
       </c>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="24">
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="21">
         <v>1</v>
       </c>
-      <c r="I25" s="26">
+      <c r="I25" s="23">
         <v>0.31</v>
       </c>
-      <c r="J25" s="27">
+      <c r="J25" s="24">
         <v>0.43</v>
       </c>
-      <c r="K25" s="25">
+      <c r="K25" s="22">
         <v>0.7</v>
       </c>
-      <c r="L25" s="25">
+      <c r="L25" s="22">
         <v>0.36</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="19"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="24">
+      <c r="A26" s="16"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="21">
         <v>2</v>
       </c>
-      <c r="I26" s="26">
+      <c r="I26" s="23">
         <v>0.09</v>
       </c>
-      <c r="J26" s="27">
+      <c r="J26" s="24">
         <v>0.42</v>
       </c>
-      <c r="K26" s="25">
+      <c r="K26" s="22">
         <v>0.87</v>
       </c>
-      <c r="L26" s="25">
+      <c r="L26" s="22">
         <v>0.15</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="28"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="24" t="s">
+      <c r="A27" s="25"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="I27" s="25">
+      <c r="I27" s="22">
         <v>0.68</v>
       </c>
-      <c r="J27" s="25">
+      <c r="J27" s="22">
         <v>0.55000000000000004</v>
       </c>
-      <c r="K27" s="25">
+      <c r="K27" s="22">
         <v>0.67</v>
       </c>
-      <c r="L27" s="25">
+      <c r="L27" s="22">
         <v>0.59</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="16"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="16"/>
-      <c r="L28" s="16"/>
+      <c r="A28" s="13"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="16"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="16"/>
-      <c r="L29" s="16"/>
+      <c r="A29" s="13"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" s="30" t="s">
+      <c r="A30" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="B30" s="31"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="17"/>
-      <c r="K30" s="17"/>
-      <c r="L30" s="18"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="15"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A31" s="19"/>
-      <c r="B31" s="16" t="s">
+      <c r="A31" s="16"/>
+      <c r="B31" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16" t="s">
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16" t="s">
+      <c r="G31" s="13"/>
+      <c r="H31" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="16"/>
-      <c r="L31" s="20"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="17"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32" s="19"/>
-      <c r="B32" s="21">
+      <c r="A32" s="16"/>
+      <c r="B32" s="18">
         <v>19699</v>
       </c>
-      <c r="C32" s="21">
+      <c r="C32" s="18">
         <v>0</v>
       </c>
-      <c r="D32" s="21">
+      <c r="D32" s="18">
         <v>0</v>
       </c>
-      <c r="E32" s="16"/>
-      <c r="F32" s="23">
-        <v>0.77408999999999994</v>
-      </c>
-      <c r="G32" s="16"/>
-      <c r="H32" s="21"/>
-      <c r="I32" s="22" t="s">
+      <c r="E32" s="13"/>
+      <c r="F32" s="20">
+        <v>0.77359999999999995</v>
+      </c>
+      <c r="G32" s="13"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="J32" s="22" t="s">
+      <c r="J32" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="K32" s="22" t="s">
+      <c r="K32" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="L32" s="22" t="s">
+      <c r="L32" s="19" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A33" s="19"/>
-      <c r="B33" s="21">
+      <c r="A33" s="16"/>
+      <c r="B33" s="18">
         <v>5319</v>
       </c>
-      <c r="C33" s="21">
-        <v>1231</v>
-      </c>
-      <c r="D33" s="21">
-        <v>48</v>
-      </c>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="24">
+      <c r="C33" s="18">
+        <v>1272</v>
+      </c>
+      <c r="D33" s="18">
+        <v>7</v>
+      </c>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="21">
         <v>0</v>
       </c>
-      <c r="I33" s="26">
+      <c r="I33" s="23">
         <v>0.78</v>
       </c>
-      <c r="J33" s="27">
+      <c r="J33" s="24">
         <v>1</v>
       </c>
-      <c r="K33" s="25">
+      <c r="K33" s="22">
         <v>0.24</v>
       </c>
-      <c r="L33" s="25">
+      <c r="L33" s="22">
         <v>0.87</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A34" s="19"/>
-      <c r="B34" s="21">
+      <c r="A34" s="16"/>
+      <c r="B34" s="18">
         <v>366</v>
       </c>
-      <c r="C34" s="21">
-        <v>399</v>
-      </c>
-      <c r="D34" s="21">
-        <v>81</v>
-      </c>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="24">
+      <c r="C34" s="18">
+        <v>453</v>
+      </c>
+      <c r="D34" s="18">
+        <v>27</v>
+      </c>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="21">
         <v>1</v>
       </c>
-      <c r="I34" s="26">
-        <v>0.76</v>
-      </c>
-      <c r="J34" s="27">
+      <c r="I34" s="23">
+        <v>0.74</v>
+      </c>
+      <c r="J34" s="24">
         <v>0.19</v>
       </c>
-      <c r="K34" s="25">
+      <c r="K34" s="22">
         <v>0.98</v>
       </c>
-      <c r="L34" s="25">
-        <v>0.3</v>
+      <c r="L34" s="22">
+        <v>0.31</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A35" s="19"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="24">
+      <c r="A35" s="16"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="21">
         <v>2</v>
       </c>
-      <c r="I35" s="26">
-        <v>0.63</v>
-      </c>
-      <c r="J35" s="27">
-        <v>0.1</v>
-      </c>
-      <c r="K35" s="25">
+      <c r="I35" s="23">
+        <v>0.79</v>
+      </c>
+      <c r="J35" s="24">
+        <v>0.03</v>
+      </c>
+      <c r="K35" s="22">
         <v>1</v>
       </c>
-      <c r="L35" s="25">
-        <v>0.17</v>
+      <c r="L35" s="22">
+        <v>0.06</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A36" s="28"/>
-      <c r="B36" s="29"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="29"/>
-      <c r="H36" s="24" t="s">
+      <c r="A36" s="25"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="I36" s="25">
+      <c r="I36" s="22">
         <v>0.77</v>
       </c>
-      <c r="J36" s="25">
+      <c r="J36" s="22">
         <v>0.77</v>
       </c>
-      <c r="K36" s="25">
+      <c r="K36" s="22">
         <v>0.44</v>
       </c>
-      <c r="L36" s="25">
+      <c r="L36" s="22">
         <v>0.71</v>
       </c>
     </row>
@@ -6979,595 +6984,395 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA4DA29C-EBE9-5045-A8E8-B4F85973D94E}">
-  <dimension ref="A1:N23"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L35" sqref="L35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:14" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:14" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+    </row>
+    <row r="2" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="30" t="s">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="18"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="19"/>
-      <c r="B5" s="32" t="s">
+      <c r="B4" s="32"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="15"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="16"/>
+      <c r="B5" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32" t="s">
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32" t="s">
+      <c r="G5" s="27"/>
+      <c r="H5" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="32"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="32"/>
-      <c r="N5" s="20"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="19"/>
-      <c r="B6" s="21">
-        <v>30489</v>
-      </c>
-      <c r="C6" s="21">
-        <v>5147</v>
-      </c>
-      <c r="D6" s="21">
-        <v>1168</v>
-      </c>
-      <c r="E6" s="21">
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="17"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="16"/>
+      <c r="B6" s="18">
+        <v>30728</v>
+      </c>
+      <c r="C6" s="18">
+        <v>5241</v>
+      </c>
+      <c r="D6" s="18">
+        <v>1183</v>
+      </c>
+      <c r="E6" s="27"/>
+      <c r="F6" s="20">
+        <v>0.7823</v>
+      </c>
+      <c r="G6" s="27"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="K6" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="L6" s="19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="16"/>
+      <c r="B7" s="18">
+        <v>2771</v>
+      </c>
+      <c r="C7" s="18">
+        <v>6458</v>
+      </c>
+      <c r="D7" s="18">
+        <v>376</v>
+      </c>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="21">
+        <v>0</v>
+      </c>
+      <c r="I7" s="23">
+        <v>0.91</v>
+      </c>
+      <c r="J7" s="24">
+        <v>0.83</v>
+      </c>
+      <c r="K7" s="22">
+        <v>0.72</v>
+      </c>
+      <c r="L7" s="22">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="16"/>
+      <c r="B8" s="18">
+        <v>219</v>
+      </c>
+      <c r="C8" s="18">
+        <v>599</v>
+      </c>
+      <c r="D8" s="18">
+        <v>146</v>
+      </c>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="21">
+        <v>1</v>
+      </c>
+      <c r="I8" s="23">
+        <v>0.53</v>
+      </c>
+      <c r="J8" s="24">
+        <v>0.67</v>
+      </c>
+      <c r="K8" s="22">
+        <v>0.85</v>
+      </c>
+      <c r="L8" s="22">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="16"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="21">
+        <v>2</v>
+      </c>
+      <c r="I9" s="23">
+        <v>0.09</v>
+      </c>
+      <c r="J9" s="24">
+        <v>0.15</v>
+      </c>
+      <c r="K9" s="22">
+        <v>0.97</v>
+      </c>
+      <c r="L9" s="22">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="25"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="21">
+      <c r="I10" s="22">
+        <v>0.82</v>
+      </c>
+      <c r="J10" s="22">
+        <v>0.78</v>
+      </c>
+      <c r="K10" s="22">
+        <v>0.75</v>
+      </c>
+      <c r="L10" s="22">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="32"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="15"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="16"/>
+      <c r="B14" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="17"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="16"/>
+      <c r="B15" s="18">
+        <v>21528</v>
+      </c>
+      <c r="C15" s="18">
+        <v>5310</v>
+      </c>
+      <c r="D15" s="18">
+        <v>1455</v>
+      </c>
+      <c r="E15" s="13"/>
+      <c r="F15" s="20">
+        <v>0.7177</v>
+      </c>
+      <c r="G15" s="13"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="J15" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="K15" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="L15" s="19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="16"/>
+      <c r="B16" s="18">
+        <v>3563</v>
+      </c>
+      <c r="C16" s="18">
+        <v>11751</v>
+      </c>
+      <c r="D16" s="18">
+        <v>1015</v>
+      </c>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="21">
         <v>0</v>
       </c>
-      <c r="G6" s="32"/>
-      <c r="H6" s="23">
-        <v>0.77832000000000001</v>
-      </c>
-      <c r="I6" s="32"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="L6" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="M6" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="N6" s="22" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="19"/>
-      <c r="B7" s="21">
-        <v>2852</v>
-      </c>
-      <c r="C7" s="21">
-        <v>6329</v>
-      </c>
-      <c r="D7" s="21">
-        <v>367</v>
-      </c>
-      <c r="E7" s="21">
-        <v>0</v>
-      </c>
-      <c r="F7" s="21">
-        <v>0</v>
-      </c>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="24">
-        <v>0</v>
-      </c>
-      <c r="K7" s="26">
-        <v>0.91</v>
-      </c>
-      <c r="L7" s="27">
-        <v>0.83</v>
-      </c>
-      <c r="M7" s="25">
-        <v>0.71</v>
-      </c>
-      <c r="N7" s="25">
-        <v>0.87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="19"/>
-      <c r="B8" s="21">
-        <v>218</v>
-      </c>
-      <c r="C8" s="21">
-        <v>614</v>
-      </c>
-      <c r="D8" s="21">
-        <v>117</v>
-      </c>
-      <c r="E8" s="21">
-        <v>0</v>
-      </c>
-      <c r="F8" s="21">
-        <v>0</v>
-      </c>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="24">
+      <c r="I16" s="23">
+        <v>0.84</v>
+      </c>
+      <c r="J16" s="24">
+        <v>0.76</v>
+      </c>
+      <c r="K16" s="22">
+        <v>0.78</v>
+      </c>
+      <c r="L16" s="22">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="16"/>
+      <c r="B17" s="18">
+        <v>592</v>
+      </c>
+      <c r="C17" s="18">
+        <v>1313</v>
+      </c>
+      <c r="D17" s="18">
+        <v>404</v>
+      </c>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="21">
         <v>1</v>
       </c>
-      <c r="K8" s="26">
-        <v>0.52</v>
-      </c>
-      <c r="L8" s="27">
-        <v>0.66</v>
-      </c>
-      <c r="M8" s="25">
-        <v>0.85</v>
-      </c>
-      <c r="N8" s="25">
-        <v>0.57999999999999996</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="19"/>
-      <c r="B9" s="21">
-        <v>35</v>
-      </c>
-      <c r="C9" s="21">
-        <v>81</v>
-      </c>
-      <c r="D9" s="21">
-        <v>12</v>
-      </c>
-      <c r="E9" s="21">
-        <v>0</v>
-      </c>
-      <c r="F9" s="21">
-        <v>0</v>
-      </c>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="24">
+      <c r="I17" s="23">
+        <v>0.64</v>
+      </c>
+      <c r="J17" s="24">
+        <v>0.72</v>
+      </c>
+      <c r="K17" s="22">
+        <v>0.78</v>
+      </c>
+      <c r="L17" s="22">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="16"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="21">
         <v>2</v>
       </c>
-      <c r="K9" s="26">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="L9" s="27">
-        <v>0.12</v>
-      </c>
-      <c r="M9" s="25">
-        <v>0.97</v>
-      </c>
-      <c r="N9" s="25">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="19"/>
-      <c r="B10" s="21">
-        <v>6</v>
-      </c>
-      <c r="C10" s="21">
-        <v>13</v>
-      </c>
-      <c r="D10" s="21">
-        <v>2</v>
-      </c>
-      <c r="E10" s="21">
-        <v>0</v>
-      </c>
-      <c r="F10" s="21">
-        <v>0</v>
-      </c>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="24">
-        <v>3</v>
-      </c>
-      <c r="K10" s="26">
-        <v>0</v>
-      </c>
-      <c r="L10" s="27">
-        <v>0</v>
-      </c>
-      <c r="M10" s="25">
-        <v>1</v>
-      </c>
-      <c r="N10" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="19"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="24">
-        <v>4</v>
-      </c>
-      <c r="K11" s="26">
-        <v>0</v>
-      </c>
-      <c r="L11" s="27">
-        <v>0</v>
-      </c>
-      <c r="M11" s="25">
-        <v>1</v>
-      </c>
-      <c r="N11" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="28"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="24" t="s">
+      <c r="I18" s="23">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J18" s="24">
+        <v>0.17</v>
+      </c>
+      <c r="K18" s="22">
+        <v>0.94</v>
+      </c>
+      <c r="L18" s="22">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="25"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="K12" s="25">
-        <v>0.81</v>
-      </c>
-      <c r="L12" s="25">
-        <v>0.78</v>
-      </c>
-      <c r="M12" s="25">
-        <v>0.74</v>
-      </c>
-      <c r="N12" s="25">
+      <c r="I19" s="22">
+        <v>0.73</v>
+      </c>
+      <c r="J19" s="22">
+        <v>0.72</v>
+      </c>
+      <c r="K19" s="22">
         <v>0.79</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="31"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="18"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="19"/>
-      <c r="B16" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="20"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="19"/>
-      <c r="B17" s="21">
-        <v>21462</v>
-      </c>
-      <c r="C17" s="22">
-        <v>5184</v>
-      </c>
-      <c r="D17" s="22">
-        <v>1139</v>
-      </c>
-      <c r="E17" s="22">
-        <v>331</v>
-      </c>
-      <c r="F17" s="22">
-        <v>7</v>
-      </c>
-      <c r="G17" s="16"/>
-      <c r="H17" s="23">
-        <v>0.70831999999999995</v>
-      </c>
-      <c r="I17" s="16"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="L17" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="M17" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="N17" s="22" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="19"/>
-      <c r="B18" s="24">
-        <v>3556</v>
-      </c>
-      <c r="C18" s="25">
-        <v>11630</v>
-      </c>
-      <c r="D18" s="25">
-        <v>810</v>
-      </c>
-      <c r="E18" s="25">
-        <v>175</v>
-      </c>
-      <c r="F18" s="25">
-        <v>3</v>
-      </c>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="24">
-        <v>0</v>
-      </c>
-      <c r="K18" s="26">
-        <v>0.83</v>
-      </c>
-      <c r="L18" s="27">
-        <v>0.76</v>
-      </c>
-      <c r="M18" s="25">
-        <v>0.78</v>
-      </c>
-      <c r="N18" s="25">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="19"/>
-      <c r="B19" s="24">
-        <v>556</v>
-      </c>
-      <c r="C19" s="25">
-        <v>1317</v>
-      </c>
-      <c r="D19" s="25">
-        <v>373</v>
-      </c>
-      <c r="E19" s="25">
-        <v>29</v>
-      </c>
-      <c r="F19" s="25">
-        <v>3</v>
-      </c>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="24">
-        <v>1</v>
-      </c>
-      <c r="K19" s="26">
-        <v>0.63</v>
-      </c>
-      <c r="L19" s="27">
+      <c r="L19" s="22">
         <v>0.72</v>
-      </c>
-      <c r="M19" s="25">
-        <v>0.78</v>
-      </c>
-      <c r="N19" s="25">
-        <v>0.67</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20" s="19"/>
-      <c r="B20" s="24">
-        <v>139</v>
-      </c>
-      <c r="C20" s="25">
-        <v>300</v>
-      </c>
-      <c r="D20" s="25">
-        <v>72</v>
-      </c>
-      <c r="E20" s="25">
-        <v>16</v>
-      </c>
-      <c r="F20" s="25">
-        <v>1</v>
-      </c>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="24">
-        <v>2</v>
-      </c>
-      <c r="K20" s="26">
-        <v>0.16</v>
-      </c>
-      <c r="L20" s="27">
-        <v>0.16</v>
-      </c>
-      <c r="M20" s="25">
-        <v>0.95</v>
-      </c>
-      <c r="N20" s="25">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" s="19"/>
-      <c r="B21" s="24">
-        <v>56</v>
-      </c>
-      <c r="C21" s="25">
-        <v>91</v>
-      </c>
-      <c r="D21" s="25">
-        <v>12</v>
-      </c>
-      <c r="E21" s="25">
-        <v>6</v>
-      </c>
-      <c r="F21" s="25">
-        <v>0</v>
-      </c>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="24">
-        <v>3</v>
-      </c>
-      <c r="K21" s="26">
-        <v>0.03</v>
-      </c>
-      <c r="L21" s="27">
-        <v>0.03</v>
-      </c>
-      <c r="M21" s="25">
-        <v>0.99</v>
-      </c>
-      <c r="N21" s="25">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22" s="19"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="24">
-        <v>4</v>
-      </c>
-      <c r="K22" s="26">
-        <v>0</v>
-      </c>
-      <c r="L22" s="27">
-        <v>0</v>
-      </c>
-      <c r="M22" s="25">
-        <v>1</v>
-      </c>
-      <c r="N22" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23" s="28"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="K23" s="25">
-        <v>0.72</v>
-      </c>
-      <c r="L23" s="25">
-        <v>0.71</v>
-      </c>
-      <c r="M23" s="25">
-        <v>0.79</v>
-      </c>
-      <c r="N23" s="25">
-        <v>0.71</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A1:F1"/>
     <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A13:B13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7576,15 +7381,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27BE0780-E94E-0440-B5BC-25892D6ADC75}">
-  <dimension ref="A1:N23"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
         <v>22</v>
       </c>
@@ -7593,632 +7398,429 @@
       <c r="D1" s="34"/>
       <c r="E1" s="34"/>
       <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-    </row>
-    <row r="2" spans="1:14" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+    </row>
+    <row r="2" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="30" t="s">
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="18"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="19"/>
-      <c r="B5" s="16" t="s">
+      <c r="B4" s="32"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="15"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="16"/>
+      <c r="B5" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16" t="s">
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16" t="s">
+      <c r="G5" s="13"/>
+      <c r="H5" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="20"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="19"/>
-      <c r="B6" s="21">
-        <v>55355</v>
-      </c>
-      <c r="C6" s="22">
-        <v>487</v>
-      </c>
-      <c r="D6" s="22">
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="17"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="16"/>
+      <c r="B6" s="18">
+        <v>55137</v>
+      </c>
+      <c r="C6" s="18">
+        <v>499</v>
+      </c>
+      <c r="D6" s="18">
+        <v>2</v>
+      </c>
+      <c r="E6" s="13"/>
+      <c r="F6" s="20">
+        <v>0.97189000000000003</v>
+      </c>
+      <c r="G6" s="13"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="K6" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="L6" s="19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="16"/>
+      <c r="B7" s="18">
+        <v>160</v>
+      </c>
+      <c r="C7" s="18">
+        <v>14262</v>
+      </c>
+      <c r="D7" s="18">
         <v>4</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="21">
         <v>0</v>
       </c>
-      <c r="F6" s="22">
+      <c r="I7" s="23">
+        <v>1</v>
+      </c>
+      <c r="J7" s="24">
+        <v>0.99</v>
+      </c>
+      <c r="K7" s="22">
+        <v>0.99</v>
+      </c>
+      <c r="L7" s="22">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="16"/>
+      <c r="B8" s="18">
+        <v>10</v>
+      </c>
+      <c r="C8" s="18">
+        <v>1367</v>
+      </c>
+      <c r="D8" s="18">
+        <v>31</v>
+      </c>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="21">
+        <v>1</v>
+      </c>
+      <c r="I8" s="23">
+        <v>0.88</v>
+      </c>
+      <c r="J8" s="24">
+        <v>0.99</v>
+      </c>
+      <c r="K8" s="22">
+        <v>0.97</v>
+      </c>
+      <c r="L8" s="22">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="16"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="21">
+        <v>2</v>
+      </c>
+      <c r="I9" s="23">
+        <v>0.84</v>
+      </c>
+      <c r="J9" s="24">
+        <v>0.02</v>
+      </c>
+      <c r="K9" s="22">
+        <v>1</v>
+      </c>
+      <c r="L9" s="22">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="25"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="22">
+        <v>0.97</v>
+      </c>
+      <c r="J10" s="22">
+        <v>0.97</v>
+      </c>
+      <c r="K10" s="22">
+        <v>0.99</v>
+      </c>
+      <c r="L10" s="22">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="32"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="15"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="16"/>
+      <c r="B14" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="17"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="16"/>
+      <c r="B15" s="18">
+        <v>29188</v>
+      </c>
+      <c r="C15" s="18">
+        <v>13207</v>
+      </c>
+      <c r="D15" s="18">
+        <v>39</v>
+      </c>
+      <c r="E15" s="13"/>
+      <c r="F15" s="20">
+        <v>0.44550000000000001</v>
+      </c>
+      <c r="G15" s="13"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="J15" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="K15" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="L15" s="19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="16"/>
+      <c r="B16" s="18">
+        <v>22312</v>
+      </c>
+      <c r="C16" s="18">
+        <v>2158</v>
+      </c>
+      <c r="D16" s="18">
+        <v>2</v>
+      </c>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="21">
         <v>0</v>
       </c>
-      <c r="G6" s="16"/>
-      <c r="H6" s="23">
-        <v>0.97189000000000003</v>
-      </c>
-      <c r="I6" s="16"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="L6" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="M6" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="N6" s="22" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="19"/>
-      <c r="B7" s="24">
-        <v>165</v>
-      </c>
-      <c r="C7" s="25">
-        <v>14304</v>
-      </c>
-      <c r="D7" s="25">
-        <v>4</v>
-      </c>
-      <c r="E7" s="25">
+      <c r="I16" s="23">
+        <v>0.54</v>
+      </c>
+      <c r="J16" s="24">
+        <v>0.69</v>
+      </c>
+      <c r="K16" s="22">
+        <v>0.09</v>
+      </c>
+      <c r="L16" s="22">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="16"/>
+      <c r="B17" s="18">
+        <v>3009</v>
+      </c>
+      <c r="C17" s="18">
+        <v>440</v>
+      </c>
+      <c r="D17" s="18">
         <v>0</v>
       </c>
-      <c r="F7" s="25">
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="21">
+        <v>1</v>
+      </c>
+      <c r="I17" s="23">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J17" s="24">
+        <v>0.09</v>
+      </c>
+      <c r="K17" s="22">
+        <v>0.7</v>
+      </c>
+      <c r="L17" s="22">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="16"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="21">
+        <v>2</v>
+      </c>
+      <c r="I18" s="23">
         <v>0</v>
       </c>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="24">
-        <v>0</v>
-      </c>
-      <c r="K7" s="26">
-        <v>1</v>
-      </c>
-      <c r="L7" s="27">
-        <v>0.99</v>
-      </c>
-      <c r="M7" s="25">
-        <v>0.99</v>
-      </c>
-      <c r="N7" s="25">
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="19"/>
-      <c r="B8" s="24">
-        <v>11</v>
-      </c>
-      <c r="C8" s="25">
-        <v>1121</v>
-      </c>
-      <c r="D8" s="25">
-        <v>246</v>
-      </c>
-      <c r="E8" s="25">
-        <v>0</v>
-      </c>
-      <c r="F8" s="25">
-        <v>0</v>
-      </c>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="24">
-        <v>1</v>
-      </c>
-      <c r="K8" s="26">
-        <v>0.89</v>
-      </c>
-      <c r="L8" s="27">
-        <v>0.99</v>
-      </c>
-      <c r="M8" s="25">
-        <v>0.97</v>
-      </c>
-      <c r="N8" s="25">
-        <v>0.94</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="19"/>
-      <c r="B9" s="24">
-        <v>2</v>
-      </c>
-      <c r="C9" s="25">
-        <v>162</v>
-      </c>
-      <c r="D9" s="25">
-        <v>26</v>
-      </c>
-      <c r="E9" s="25">
-        <v>0</v>
-      </c>
-      <c r="F9" s="25">
-        <v>0</v>
-      </c>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="24">
-        <v>2</v>
-      </c>
-      <c r="K9" s="26">
-        <v>0.85</v>
-      </c>
-      <c r="L9" s="27">
-        <v>0.18</v>
-      </c>
-      <c r="M9" s="25">
-        <v>1</v>
-      </c>
-      <c r="N9" s="25">
-        <v>0.28999999999999998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="19"/>
-      <c r="B10" s="24">
-        <v>1</v>
-      </c>
-      <c r="C10" s="25">
-        <v>29</v>
-      </c>
-      <c r="D10" s="25">
-        <v>10</v>
-      </c>
-      <c r="E10" s="25">
-        <v>0</v>
-      </c>
-      <c r="F10" s="25">
-        <v>0</v>
-      </c>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="24">
-        <v>3</v>
-      </c>
-      <c r="K10" s="26">
-        <v>0</v>
-      </c>
-      <c r="L10" s="27">
-        <v>0</v>
-      </c>
-      <c r="M10" s="25">
-        <v>1</v>
-      </c>
-      <c r="N10" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="19"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="24">
-        <v>4</v>
-      </c>
-      <c r="K11" s="26">
-        <v>0</v>
-      </c>
-      <c r="L11" s="27">
-        <v>0</v>
-      </c>
-      <c r="M11" s="25">
-        <v>1</v>
-      </c>
-      <c r="N11" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="28"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="K12" s="25">
-        <v>0.97</v>
-      </c>
-      <c r="L12" s="25">
-        <v>0.97</v>
-      </c>
-      <c r="M12" s="25">
-        <v>0.99</v>
-      </c>
-      <c r="N12" s="25">
-        <v>0.97</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="16"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="16"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="16"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="31"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="18"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="19"/>
-      <c r="B16" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="20"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="19"/>
-      <c r="B17" s="21">
-        <v>29362</v>
-      </c>
-      <c r="C17" s="22">
-        <v>13279</v>
-      </c>
-      <c r="D17" s="22">
-        <v>321</v>
-      </c>
-      <c r="E17" s="22">
-        <v>0</v>
-      </c>
-      <c r="F17" s="22">
-        <v>0</v>
-      </c>
-      <c r="G17" s="16"/>
-      <c r="H17" s="23">
-        <v>0.43875999999999998</v>
-      </c>
-      <c r="I17" s="16"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="L17" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="M17" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="N17" s="22" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="19"/>
-      <c r="B18" s="24">
-        <v>22309</v>
-      </c>
-      <c r="C18" s="25">
-        <v>2153</v>
-      </c>
-      <c r="D18" s="25">
-        <v>2</v>
-      </c>
-      <c r="E18" s="25">
-        <v>0</v>
-      </c>
-      <c r="F18" s="25">
-        <v>0</v>
-      </c>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
       <c r="J18" s="24">
         <v>0</v>
       </c>
-      <c r="K18" s="26">
-        <v>0.53</v>
-      </c>
-      <c r="L18" s="27">
-        <v>0.68</v>
-      </c>
-      <c r="M18" s="25">
-        <v>0.1</v>
-      </c>
-      <c r="N18" s="25">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="19"/>
-      <c r="B19" s="24">
-        <v>2990</v>
-      </c>
-      <c r="C19" s="25">
-        <v>452</v>
-      </c>
-      <c r="D19" s="25">
+      <c r="K18" s="22">
+        <v>1</v>
+      </c>
+      <c r="L18" s="22">
         <v>0</v>
       </c>
-      <c r="E19" s="25">
-        <v>0</v>
-      </c>
-      <c r="F19" s="25">
-        <v>0</v>
-      </c>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="24">
-        <v>1</v>
-      </c>
-      <c r="K19" s="26">
-        <v>0.13</v>
-      </c>
-      <c r="L19" s="27">
-        <v>0.09</v>
-      </c>
-      <c r="M19" s="25">
-        <v>0.7</v>
-      </c>
-      <c r="N19" s="25">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20" s="19"/>
-      <c r="B20" s="24">
-        <v>563</v>
-      </c>
-      <c r="C20" s="25">
-        <v>138</v>
-      </c>
-      <c r="D20" s="25">
-        <v>1</v>
-      </c>
-      <c r="E20" s="25">
-        <v>0</v>
-      </c>
-      <c r="F20" s="25">
-        <v>0</v>
-      </c>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="24">
-        <v>2</v>
-      </c>
-      <c r="K20" s="26">
-        <v>0</v>
-      </c>
-      <c r="L20" s="27">
-        <v>0</v>
-      </c>
-      <c r="M20" s="25">
-        <v>1</v>
-      </c>
-      <c r="N20" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" s="19"/>
-      <c r="B21" s="24">
-        <v>72</v>
-      </c>
-      <c r="C21" s="25">
-        <v>185</v>
-      </c>
-      <c r="D21" s="25">
-        <v>0</v>
-      </c>
-      <c r="E21" s="25">
-        <v>0</v>
-      </c>
-      <c r="F21" s="25">
-        <v>0</v>
-      </c>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="24">
-        <v>3</v>
-      </c>
-      <c r="K21" s="26">
-        <v>0</v>
-      </c>
-      <c r="L21" s="27">
-        <v>0</v>
-      </c>
-      <c r="M21" s="25">
-        <v>1</v>
-      </c>
-      <c r="N21" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22" s="19"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="24">
-        <v>4</v>
-      </c>
-      <c r="K22" s="26">
-        <v>0</v>
-      </c>
-      <c r="L22" s="27">
-        <v>0</v>
-      </c>
-      <c r="M22" s="25">
-        <v>1</v>
-      </c>
-      <c r="N22" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23" s="28"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="24" t="s">
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="25"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="K23" s="25">
-        <v>0.36</v>
-      </c>
-      <c r="L23" s="25">
-        <v>0.44</v>
-      </c>
-      <c r="M23" s="25">
-        <v>0.36</v>
-      </c>
-      <c r="N23" s="25">
-        <v>0.39</v>
-      </c>
+      <c r="I19" s="22">
+        <v>0.37</v>
+      </c>
+      <c r="J19" s="22">
+        <v>0.45</v>
+      </c>
+      <c r="K19" s="22">
+        <v>0.35</v>
+      </c>
+      <c r="L19" s="22">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I20" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A1:F1"/>
     <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A13:B13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
